--- a/data/sectors_searchstrings_full.xlsx
+++ b/data/sectors_searchstrings_full.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\mye500\projects\cascading_failure\mapping_industries_economic_sectors\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\BETA-IVM-BAZIS\mye500\projects\Map2Grid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FD5B1-5FAA-437F-ABB3-8B6CEBE3F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBF799-8E12-494D-8998-BD843ADCC3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="804" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19440" yWindow="-2674" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -499,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -526,6 +527,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,6 +647,36 @@
             <v>2077.2686992298763</v>
           </cell>
         </row>
+        <row r="38">
+          <cell r="C38">
+            <v>962.94697202511725</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Installed_capacity"/>
+      <sheetName val="Power_generation"/>
+      <sheetName val="Summary_cheet"/>
+      <sheetName val="Electricity_sales"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="34">
           <cell r="C34">
             <v>3325.1563868872609</v>
@@ -661,11 +695,6 @@
         <row r="37">
           <cell r="C37">
             <v>465.57277643486515</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>962.94697202511725</v>
           </cell>
         </row>
         <row r="39">
@@ -975,7 +1004,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,9 +1467,9 @@
       <c r="B13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="5">
-        <f>[1]Electricity_sales!$C$34</f>
-        <v>3325.1563868872609</v>
+      <c r="C13" s="10">
+        <f>[2]Electricity_sales!$C$34+[2]Electricity_sales!$C$35</f>
+        <v>11799.59856341478</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
@@ -1512,9 +1541,9 @@
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5">
-        <f>[1]Electricity_sales!$C$35+[1]Electricity_sales!$C$36+[1]Electricity_sales!$C$37+[1]Electricity_sales!$C$39+[1]Electricity_sales!$C$40</f>
-        <v>11491.760825990632</v>
+      <c r="C15" s="10">
+        <f>[2]Electricity_sales!$C$36+[2]Electricity_sales!$C$37+[2]Electricity_sales!$C$39+[2]Electricity_sales!$C$40</f>
+        <v>3017.3186494631154</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>41</v>

--- a/data/sectors_searchstrings_full.xlsx
+++ b/data/sectors_searchstrings_full.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\BETA-IVM-BAZIS\mye500\projects\Map2Grid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBF799-8E12-494D-8998-BD843ADCC3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC9EF3-877A-4B54-8367-9A36FF5A0864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="-2674" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stats_by_economic_sector" sheetId="2" r:id="rId2"/>
+    <sheet name="stats_by_province_2023" sheetId="4" r:id="rId3"/>
+    <sheet name="data_source" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +58,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{3B6DF46A-8C79-4561-99E3-2C342C9BD160}">
+    <comment ref="J7" authorId="1" shapeId="0" xr:uid="{3B6DF46A-8C79-4561-99E3-2C342C9BD160}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
   <si>
     <t>sector_id</t>
   </si>
@@ -430,14 +433,341 @@
     <t>electricity_demand</t>
   </si>
   <si>
-    <t>Electrical and c equipment</t>
+    <t>From 10 to under 50 bill. Dongs</t>
+  </si>
+  <si>
+    <t>From 50 to under 200 bill. dongs</t>
+  </si>
+  <si>
+    <t>From 200 to under 500 bill. Dongs</t>
+  </si>
+  <si>
+    <t>From 500 bill. dongs and over</t>
+  </si>
+  <si>
+    <t>Repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>Other manufacturing</t>
+  </si>
+  <si>
+    <t>Manufacture of furniture</t>
+  </si>
+  <si>
+    <t>Manufacture of other transport equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of motor vehicles; trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>Manufacture of machinery and equipment n.e.c</t>
+  </si>
+  <si>
+    <t>Manufacture of electrical equipment</t>
+  </si>
+  <si>
+    <t>Manufacture of computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>Manufacture of fabricated metal products (except machinery and equipment)</t>
+  </si>
+  <si>
+    <t>Manufacture of basic metals</t>
+  </si>
+  <si>
+    <t>Manufacture of other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>Manufacture of rubber and plastics products</t>
+  </si>
+  <si>
+    <t>Manufacture of pharmaceuticals, medicinal chemical and botanical products</t>
+  </si>
+  <si>
+    <t>Manufacture of chemicals and chemical products</t>
+  </si>
+  <si>
+    <t>Manufacture of coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>Printing and reproduction of recorded media</t>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+  </si>
+  <si>
+    <t>Manufacture of wood and of products of wood and cork (except furniture)</t>
+  </si>
+  <si>
+    <t>Manufacture of leather and related products</t>
+  </si>
+  <si>
+    <t>Manufacture of wearing apparel</t>
+  </si>
+  <si>
+    <t>Manufacture of textiles</t>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products</t>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>Manufacture of food products</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>From 10 to under 50 bill. dongs</t>
+  </si>
+  <si>
+    <t>Nec.</t>
+  </si>
+  <si>
+    <t>Mekong River Delta</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>Central Highlands</t>
+  </si>
+  <si>
+    <t>Northern Central area and Central coastal area</t>
+  </si>
+  <si>
+    <t>Northern midlands and mountain areas</t>
+  </si>
+  <si>
+    <t>Red River Delta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WHOLE COUNTRY</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Vinh Phuc</t>
+  </si>
+  <si>
+    <t>Bac Ninh</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Hai Duong</t>
+  </si>
+  <si>
+    <t>Hai Phong</t>
+  </si>
+  <si>
+    <t>Hung Yen</t>
+  </si>
+  <si>
+    <t>Thai Binh</t>
+  </si>
+  <si>
+    <t>Ha Nam</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Ninh Binh</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Tuyen Quang</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
+  </si>
+  <si>
+    <t>Yen Bai</t>
+  </si>
+  <si>
+    <t>Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Phu Tho</t>
+  </si>
+  <si>
+    <t>Dien Bien</t>
+  </si>
+  <si>
+    <t>Lai Chau</t>
+  </si>
+  <si>
+    <t>Son La</t>
+  </si>
+  <si>
+    <t>Hoa Binh</t>
+  </si>
+  <si>
+    <t>Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Ha Tinh</t>
+  </si>
+  <si>
+    <t>Quang Binh</t>
+  </si>
+  <si>
+    <t>Quang Tri</t>
+  </si>
+  <si>
+    <t>Thua Thien-Hue</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Quang Ngai</t>
+  </si>
+  <si>
+    <t>Binh Dinh</t>
+  </si>
+  <si>
+    <t>Phu Yen</t>
+  </si>
+  <si>
+    <t>Khanh Hoa</t>
+  </si>
+  <si>
+    <t>Ninh Thuan</t>
+  </si>
+  <si>
+    <t>Binh Thuan</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Dak Lak</t>
+  </si>
+  <si>
+    <t>Dak Nong</t>
+  </si>
+  <si>
+    <t>Lam Dong</t>
+  </si>
+  <si>
+    <t>Binh Phuoc</t>
+  </si>
+  <si>
+    <t>Tay Ninh</t>
+  </si>
+  <si>
+    <t>Binh Duong</t>
+  </si>
+  <si>
+    <t>Dong Nai</t>
+  </si>
+  <si>
+    <t>Ba Ria - Vung Tau</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh city</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Tien Giang</t>
+  </si>
+  <si>
+    <t>Ben Tre</t>
+  </si>
+  <si>
+    <t>Tra Vinh</t>
+  </si>
+  <si>
+    <t>Vinh Long</t>
+  </si>
+  <si>
+    <t>Dong Thap</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Kien Giang</t>
+  </si>
+  <si>
+    <t>Can Tho</t>
+  </si>
+  <si>
+    <t>Hau Giang</t>
+  </si>
+  <si>
+    <t>Soc Trang</t>
+  </si>
+  <si>
+    <t>Bac Lieu</t>
+  </si>
+  <si>
+    <t>Ca Mau</t>
+  </si>
+  <si>
+    <t>Electrical and optical equipment</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>https://www.nso.gov.vn/en/enterprises/</t>
+  </si>
+  <si>
+    <t>stats_by economic_sector</t>
+  </si>
+  <si>
+    <t>stats_by_province</t>
+  </si>
+  <si>
+    <t>https://www.nso.gov.vn/en/px-web/?pxid=E0528&amp;theme=Enterprise</t>
+  </si>
+  <si>
+    <t>https://www.nso.gov.vn/en/px-web/?pxid=E0529&amp;theme=Enterprise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,16 +809,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -496,11 +888,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -532,8 +1015,89 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,7 +1551,7 @@
     <text xml:space="preserve">European Commission: TCLF (Textiles, clothing, leather and footwear) industries
 </text>
   </threadedComment>
-  <threadedComment ref="E7" dT="2024-03-26T13:39:22.98" personId="{72DFAC19-5F7F-4978-8B90-1A362F17D3DC}" id="{3B6DF46A-8C79-4561-99E3-2C342C9BD160}">
+  <threadedComment ref="J7" dT="2024-03-26T13:39:22.98" personId="{72DFAC19-5F7F-4978-8B90-1A362F17D3DC}" id="{3B6DF46A-8C79-4561-99E3-2C342C9BD160}">
     <text>https://en.wikipedia.org/wiki/Chemical_industry#/media/File:FEMA_-_37677_-_Aerial_of_a_Louisiana_oil_refinary_repaired_since_Katrina.jpg</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1001,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,12 +1576,12 @@
     <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="4" customWidth="1"/>
-    <col min="5" max="14" width="24.6640625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="9" width="15.5546875" style="4" customWidth="1"/>
+    <col min="10" max="19" width="24.6640625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1030,38 +1594,53 @@
       <c r="D1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1075,34 +1654,54 @@
       <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13">
+        <f>stats_by_economic_sector!B4+stats_by_economic_sector!B5+stats_by_economic_sector!B6</f>
+        <v>298</v>
+      </c>
+      <c r="F2" s="13">
+        <f>stats_by_economic_sector!C4+stats_by_economic_sector!C5+stats_by_economic_sector!C6</f>
+        <v>266</v>
+      </c>
+      <c r="G2" s="13">
+        <f>stats_by_economic_sector!D4+stats_by_economic_sector!D5+stats_by_economic_sector!D6</f>
+        <v>154</v>
+      </c>
+      <c r="H2" s="13">
+        <f>stats_by_economic_sector!E4+stats_by_economic_sector!E5+stats_by_economic_sector!E6</f>
+        <v>183</v>
+      </c>
+      <c r="I2" s="13">
+        <f>stats_by_economic_sector!F4+stats_by_economic_sector!F5+stats_by_economic_sector!F6</f>
+        <v>1284</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1116,32 +1715,52 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13">
+        <f>stats_by_economic_sector!B7+stats_by_economic_sector!B8</f>
+        <v>433</v>
+      </c>
+      <c r="F3" s="13">
+        <f>stats_by_economic_sector!C7+stats_by_economic_sector!C8</f>
+        <v>199</v>
+      </c>
+      <c r="G3" s="13">
+        <f>stats_by_economic_sector!D7+stats_by_economic_sector!D8</f>
+        <v>97</v>
+      </c>
+      <c r="H3" s="13">
+        <f>stats_by_economic_sector!E7+stats_by_economic_sector!E8</f>
+        <v>127</v>
+      </c>
+      <c r="I3" s="13">
+        <f>stats_by_economic_sector!F7+stats_by_economic_sector!F8</f>
+        <v>2465</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1155,24 +1774,44 @@
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14">
+        <f>stats_by_economic_sector!B9</f>
+        <v>462</v>
+      </c>
+      <c r="F4" s="14">
+        <f>stats_by_economic_sector!C9</f>
+        <v>287</v>
+      </c>
+      <c r="G4" s="14">
+        <f>stats_by_economic_sector!D9</f>
+        <v>139</v>
+      </c>
+      <c r="H4" s="14">
+        <f>stats_by_economic_sector!E9</f>
+        <v>158</v>
+      </c>
+      <c r="I4" s="14">
+        <f>stats_by_economic_sector!F9</f>
+        <v>1632</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1186,26 +1825,46 @@
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13">
+        <f>stats_by_economic_sector!B10</f>
+        <v>484</v>
+      </c>
+      <c r="F5" s="13">
+        <f>stats_by_economic_sector!C10</f>
+        <v>328</v>
+      </c>
+      <c r="G5" s="13">
+        <f>stats_by_economic_sector!D10</f>
+        <v>177</v>
+      </c>
+      <c r="H5" s="13">
+        <f>stats_by_economic_sector!E10</f>
+        <v>187</v>
+      </c>
+      <c r="I5" s="13">
+        <f>stats_by_economic_sector!F10</f>
+        <v>1930</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1219,22 +1878,42 @@
       <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13">
+        <f>stats_by_economic_sector!B11+stats_by_economic_sector!B12</f>
+        <v>1255</v>
+      </c>
+      <c r="F6" s="13">
+        <f>stats_by_economic_sector!C11+stats_by_economic_sector!C12</f>
+        <v>669</v>
+      </c>
+      <c r="G6" s="13">
+        <f>stats_by_economic_sector!D11+stats_by_economic_sector!D12</f>
+        <v>269</v>
+      </c>
+      <c r="H6" s="13">
+        <f>stats_by_economic_sector!E11+stats_by_economic_sector!E12</f>
+        <v>392</v>
+      </c>
+      <c r="I6" s="13">
+        <f>stats_by_economic_sector!F11+stats_by_economic_sector!F12</f>
+        <v>4845</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1248,24 +1927,44 @@
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="14">
+        <f>stats_by_economic_sector!B13</f>
+        <v>685</v>
+      </c>
+      <c r="F7" s="14">
+        <f>stats_by_economic_sector!C13</f>
+        <v>346</v>
+      </c>
+      <c r="G7" s="14">
+        <f>stats_by_economic_sector!D13</f>
+        <v>121</v>
+      </c>
+      <c r="H7" s="14">
+        <f>stats_by_economic_sector!E13</f>
+        <v>156</v>
+      </c>
+      <c r="I7" s="14">
+        <f>stats_by_economic_sector!F13</f>
+        <v>2909</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1279,30 +1978,50 @@
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13">
+        <f>stats_by_economic_sector!B14+stats_by_economic_sector!B15</f>
+        <v>1723</v>
+      </c>
+      <c r="F8" s="13">
+        <f>stats_by_economic_sector!C14+stats_by_economic_sector!C15</f>
+        <v>443</v>
+      </c>
+      <c r="G8" s="13">
+        <f>stats_by_economic_sector!D14+stats_by_economic_sector!D15</f>
+        <v>145</v>
+      </c>
+      <c r="H8" s="13">
+        <f>stats_by_economic_sector!E14+stats_by_economic_sector!E15</f>
+        <v>90</v>
+      </c>
+      <c r="I8" s="13">
+        <f>stats_by_economic_sector!F14+stats_by_economic_sector!F15</f>
+        <v>10678</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1316,32 +2035,52 @@
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13">
+        <f>stats_by_economic_sector!B16</f>
+        <v>1034</v>
+      </c>
+      <c r="F9" s="13">
+        <f>stats_by_economic_sector!C16</f>
+        <v>177</v>
+      </c>
+      <c r="G9" s="13">
+        <f>stats_by_economic_sector!D16</f>
+        <v>38</v>
+      </c>
+      <c r="H9" s="13">
+        <f>stats_by_economic_sector!E16</f>
+        <v>26</v>
+      </c>
+      <c r="I9" s="13">
+        <f>stats_by_economic_sector!F16</f>
+        <v>5351</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1355,26 +2094,46 @@
       <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="13">
+        <f>stats_by_economic_sector!B17</f>
+        <v>1079</v>
+      </c>
+      <c r="F10" s="13">
+        <f>stats_by_economic_sector!C17</f>
+        <v>527</v>
+      </c>
+      <c r="G10" s="13">
+        <f>stats_by_economic_sector!D17</f>
+        <v>151</v>
+      </c>
+      <c r="H10" s="13">
+        <f>stats_by_economic_sector!E17</f>
+        <v>110</v>
+      </c>
+      <c r="I10" s="13">
+        <f>stats_by_economic_sector!F17</f>
+        <v>3643</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="8"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1388,38 +2147,58 @@
       <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13">
+        <f>stats_by_economic_sector!B18+stats_by_economic_sector!B19</f>
+        <v>2529</v>
+      </c>
+      <c r="F11" s="13">
+        <f>stats_by_economic_sector!C18+stats_by_economic_sector!C19</f>
+        <v>1227</v>
+      </c>
+      <c r="G11" s="13">
+        <f>stats_by_economic_sector!D18+stats_by_economic_sector!D19</f>
+        <v>413</v>
+      </c>
+      <c r="H11" s="13">
+        <f>stats_by_economic_sector!E18+stats_by_economic_sector!E19</f>
+        <v>371</v>
+      </c>
+      <c r="I11" s="13">
+        <f>stats_by_economic_sector!F18+stats_by_economic_sector!F19</f>
+        <v>9952</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="P11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1433,39 +2212,59 @@
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="14">
+        <f>stats_by_economic_sector!B22</f>
+        <v>2062</v>
+      </c>
+      <c r="F12" s="14">
+        <f>stats_by_economic_sector!C22</f>
+        <v>1083</v>
+      </c>
+      <c r="G12" s="14">
+        <f>stats_by_economic_sector!D22</f>
+        <v>226</v>
+      </c>
+      <c r="H12" s="14">
+        <f>stats_by_economic_sector!E22</f>
+        <v>217</v>
+      </c>
+      <c r="I12" s="14">
+        <f>stats_by_economic_sector!F22</f>
+        <v>6036</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="C13" s="10">
         <f>[2]Electricity_sales!$C$34+[2]Electricity_sales!$C$35</f>
@@ -1474,30 +2273,50 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14">
+        <f>stats_by_economic_sector!B20+stats_by_economic_sector!B21</f>
+        <v>3475</v>
+      </c>
+      <c r="F13" s="14">
+        <f>stats_by_economic_sector!C20+stats_by_economic_sector!C21</f>
+        <v>1401</v>
+      </c>
+      <c r="G13" s="14">
+        <f>stats_by_economic_sector!D20+stats_by_economic_sector!D21</f>
+        <v>416</v>
+      </c>
+      <c r="H13" s="14">
+        <f>stats_by_economic_sector!E20+stats_by_economic_sector!E21</f>
+        <v>272</v>
+      </c>
+      <c r="I13" s="14">
+        <f>stats_by_economic_sector!F20+stats_by_economic_sector!F21</f>
+        <v>15154</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1511,30 +2330,50 @@
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="14">
+        <f>stats_by_economic_sector!B23+stats_by_economic_sector!B24</f>
+        <v>4562</v>
+      </c>
+      <c r="F14" s="14">
+        <f>stats_by_economic_sector!C23+stats_by_economic_sector!C24</f>
+        <v>1823</v>
+      </c>
+      <c r="G14" s="14">
+        <f>stats_by_economic_sector!D23+stats_by_economic_sector!D24</f>
+        <v>490</v>
+      </c>
+      <c r="H14" s="14">
+        <f>stats_by_economic_sector!E23+stats_by_economic_sector!E24</f>
+        <v>313</v>
+      </c>
+      <c r="I14" s="14">
+        <f>stats_by_economic_sector!F23+stats_by_economic_sector!F24</f>
+        <v>14938</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1548,35 +2387,60 @@
       <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="13">
+        <f>stats_by_economic_sector!B25+stats_by_economic_sector!B26+stats_by_economic_sector!B27</f>
+        <v>34992</v>
+      </c>
+      <c r="F15" s="13">
+        <f>stats_by_economic_sector!C25+stats_by_economic_sector!C26+stats_by_economic_sector!C27</f>
+        <v>13983</v>
+      </c>
+      <c r="G15" s="13">
+        <f>stats_by_economic_sector!D25+stats_by_economic_sector!D26+stats_by_economic_sector!D27</f>
+        <v>4485</v>
+      </c>
+      <c r="H15" s="13">
+        <f>stats_by_economic_sector!E25+stats_by_economic_sector!E26+stats_by_economic_sector!E27</f>
+        <v>3941</v>
+      </c>
+      <c r="I15" s="13">
+        <f>stats_by_economic_sector!F25+stats_by_economic_sector!F26+stats_by_economic_sector!F27</f>
+        <v>151229</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
@@ -1586,4 +2450,1854 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718BC357-BE1D-48C4-9BF4-A4689DA0F7B1}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39" style="16" customWidth="1"/>
+    <col min="2" max="5" width="18.21875" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="23">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="21">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22">
+        <v>9</v>
+      </c>
+      <c r="F3" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="21">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="21">
+        <v>132</v>
+      </c>
+      <c r="C5" s="21">
+        <v>114</v>
+      </c>
+      <c r="D5" s="21">
+        <v>58</v>
+      </c>
+      <c r="E5" s="22">
+        <v>62</v>
+      </c>
+      <c r="F5" s="19">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="21">
+        <v>154</v>
+      </c>
+      <c r="C6" s="21">
+        <v>141</v>
+      </c>
+      <c r="D6" s="21">
+        <v>93</v>
+      </c>
+      <c r="E6" s="22">
+        <v>112</v>
+      </c>
+      <c r="F6" s="19">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="21">
+        <v>163</v>
+      </c>
+      <c r="C7" s="21">
+        <v>110</v>
+      </c>
+      <c r="D7" s="21">
+        <v>58</v>
+      </c>
+      <c r="E7" s="22">
+        <v>71</v>
+      </c>
+      <c r="F7" s="19">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="21">
+        <v>270</v>
+      </c>
+      <c r="C8" s="21">
+        <v>89</v>
+      </c>
+      <c r="D8" s="21">
+        <v>39</v>
+      </c>
+      <c r="E8" s="22">
+        <v>56</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="21">
+        <v>462</v>
+      </c>
+      <c r="C9" s="21">
+        <v>287</v>
+      </c>
+      <c r="D9" s="21">
+        <v>139</v>
+      </c>
+      <c r="E9" s="22">
+        <v>158</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="21">
+        <v>484</v>
+      </c>
+      <c r="C10" s="21">
+        <v>328</v>
+      </c>
+      <c r="D10" s="21">
+        <v>177</v>
+      </c>
+      <c r="E10" s="22">
+        <v>187</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="21">
+        <v>573</v>
+      </c>
+      <c r="C11" s="21">
+        <v>411</v>
+      </c>
+      <c r="D11" s="21">
+        <v>191</v>
+      </c>
+      <c r="E11" s="22">
+        <v>333</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21">
+        <v>682</v>
+      </c>
+      <c r="C12" s="21">
+        <v>258</v>
+      </c>
+      <c r="D12" s="21">
+        <v>78</v>
+      </c>
+      <c r="E12" s="22">
+        <v>59</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="21">
+        <v>685</v>
+      </c>
+      <c r="C13" s="21">
+        <v>346</v>
+      </c>
+      <c r="D13" s="21">
+        <v>121</v>
+      </c>
+      <c r="E13" s="22">
+        <v>156</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="21">
+        <v>706</v>
+      </c>
+      <c r="C14" s="21">
+        <v>261</v>
+      </c>
+      <c r="D14" s="21">
+        <v>110</v>
+      </c>
+      <c r="E14" s="22">
+        <v>75</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1017</v>
+      </c>
+      <c r="C15" s="21">
+        <v>182</v>
+      </c>
+      <c r="D15" s="21">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1034</v>
+      </c>
+      <c r="C16" s="21">
+        <v>177</v>
+      </c>
+      <c r="D16" s="21">
+        <v>38</v>
+      </c>
+      <c r="E16" s="22">
+        <v>26</v>
+      </c>
+      <c r="F16" s="19">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1079</v>
+      </c>
+      <c r="C17" s="21">
+        <v>527</v>
+      </c>
+      <c r="D17" s="21">
+        <v>151</v>
+      </c>
+      <c r="E17" s="22">
+        <v>110</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1144</v>
+      </c>
+      <c r="C18" s="21">
+        <v>522</v>
+      </c>
+      <c r="D18" s="21">
+        <v>182</v>
+      </c>
+      <c r="E18" s="22">
+        <v>193</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1385</v>
+      </c>
+      <c r="C19" s="21">
+        <v>705</v>
+      </c>
+      <c r="D19" s="21">
+        <v>231</v>
+      </c>
+      <c r="E19" s="22">
+        <v>178</v>
+      </c>
+      <c r="F19" s="19">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1535</v>
+      </c>
+      <c r="C20" s="21">
+        <v>675</v>
+      </c>
+      <c r="D20" s="21">
+        <v>196</v>
+      </c>
+      <c r="E20" s="22">
+        <v>118</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1940</v>
+      </c>
+      <c r="C21" s="21">
+        <v>726</v>
+      </c>
+      <c r="D21" s="21">
+        <v>220</v>
+      </c>
+      <c r="E21" s="22">
+        <v>154</v>
+      </c>
+      <c r="F21" s="19">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="19">
+        <v>2062</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1083</v>
+      </c>
+      <c r="D22" s="21">
+        <v>226</v>
+      </c>
+      <c r="E22" s="22">
+        <v>217</v>
+      </c>
+      <c r="F22" s="19">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2251</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1128</v>
+      </c>
+      <c r="D23" s="21">
+        <v>355</v>
+      </c>
+      <c r="E23" s="22">
+        <v>250</v>
+      </c>
+      <c r="F23" s="19">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="19">
+        <v>2311</v>
+      </c>
+      <c r="C24" s="21">
+        <v>695</v>
+      </c>
+      <c r="D24" s="21">
+        <v>135</v>
+      </c>
+      <c r="E24" s="22">
+        <v>63</v>
+      </c>
+      <c r="F24" s="19">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2354</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1262</v>
+      </c>
+      <c r="D25" s="21">
+        <v>496</v>
+      </c>
+      <c r="E25" s="22">
+        <v>436</v>
+      </c>
+      <c r="F25" s="19">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="19">
+        <v>5100</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1340</v>
+      </c>
+      <c r="D26" s="21">
+        <v>324</v>
+      </c>
+      <c r="E26" s="22">
+        <v>229</v>
+      </c>
+      <c r="F26" s="19">
+        <v>22882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="29">
+        <v>27538</v>
+      </c>
+      <c r="C27" s="29">
+        <v>11381</v>
+      </c>
+      <c r="D27" s="29">
+        <v>3665</v>
+      </c>
+      <c r="E27" s="30">
+        <v>3276</v>
+      </c>
+      <c r="F27" s="29">
+        <v>118890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6AA7E9-BA3F-436F-8BFF-6A5B8E6A894E}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="17.21875" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="29">
+        <v>177750</v>
+      </c>
+      <c r="C2" s="29">
+        <v>48260</v>
+      </c>
+      <c r="D2" s="29">
+        <v>11950</v>
+      </c>
+      <c r="E2" s="30">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="29">
+        <v>58264</v>
+      </c>
+      <c r="C3" s="29">
+        <v>16632</v>
+      </c>
+      <c r="D3" s="29">
+        <v>3991</v>
+      </c>
+      <c r="E3" s="30">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="19">
+        <v>35966</v>
+      </c>
+      <c r="C4" s="19">
+        <v>9484</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2235</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2066</v>
+      </c>
+      <c r="C5" s="21">
+        <v>565</v>
+      </c>
+      <c r="D5" s="21">
+        <v>130</v>
+      </c>
+      <c r="E5" s="22">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3633</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1226</v>
+      </c>
+      <c r="D6" s="21">
+        <v>326</v>
+      </c>
+      <c r="E6" s="22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2187</v>
+      </c>
+      <c r="C7" s="21">
+        <v>638</v>
+      </c>
+      <c r="D7" s="21">
+        <v>158</v>
+      </c>
+      <c r="E7" s="22">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2174</v>
+      </c>
+      <c r="C8" s="21">
+        <v>675</v>
+      </c>
+      <c r="D8" s="21">
+        <v>150</v>
+      </c>
+      <c r="E8" s="22">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="19">
+        <v>4386</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1320</v>
+      </c>
+      <c r="D9" s="21">
+        <v>353</v>
+      </c>
+      <c r="E9" s="22">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1983</v>
+      </c>
+      <c r="C10" s="21">
+        <v>778</v>
+      </c>
+      <c r="D10" s="21">
+        <v>200</v>
+      </c>
+      <c r="E10" s="22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1455</v>
+      </c>
+      <c r="C11" s="21">
+        <v>409</v>
+      </c>
+      <c r="D11" s="21">
+        <v>102</v>
+      </c>
+      <c r="E11" s="22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1264</v>
+      </c>
+      <c r="C12" s="21">
+        <v>552</v>
+      </c>
+      <c r="D12" s="21">
+        <v>136</v>
+      </c>
+      <c r="E12" s="22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1929</v>
+      </c>
+      <c r="C13" s="21">
+        <v>528</v>
+      </c>
+      <c r="D13" s="21">
+        <v>82</v>
+      </c>
+      <c r="E13" s="22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1221</v>
+      </c>
+      <c r="C14" s="21">
+        <v>457</v>
+      </c>
+      <c r="D14" s="21">
+        <v>119</v>
+      </c>
+      <c r="E14" s="22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="31" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="29">
+        <v>9362</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2756</v>
+      </c>
+      <c r="D15" s="32">
+        <v>680</v>
+      </c>
+      <c r="E15" s="33">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="21">
+        <v>324</v>
+      </c>
+      <c r="C16" s="21">
+        <v>91</v>
+      </c>
+      <c r="D16" s="21">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="21">
+        <v>268</v>
+      </c>
+      <c r="C17" s="21">
+        <v>57</v>
+      </c>
+      <c r="D17" s="21">
+        <v>12</v>
+      </c>
+      <c r="E17" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="21">
+        <v>141</v>
+      </c>
+      <c r="C18" s="21">
+        <v>45</v>
+      </c>
+      <c r="D18" s="21">
+        <v>9</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="21">
+        <v>358</v>
+      </c>
+      <c r="C19" s="21">
+        <v>87</v>
+      </c>
+      <c r="D19" s="21">
+        <v>18</v>
+      </c>
+      <c r="E19" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="21">
+        <v>871</v>
+      </c>
+      <c r="C20" s="21">
+        <v>237</v>
+      </c>
+      <c r="D20" s="21">
+        <v>58</v>
+      </c>
+      <c r="E20" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="21">
+        <v>429</v>
+      </c>
+      <c r="C21" s="21">
+        <v>139</v>
+      </c>
+      <c r="D21" s="21">
+        <v>37</v>
+      </c>
+      <c r="E21" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1220</v>
+      </c>
+      <c r="C22" s="21">
+        <v>398</v>
+      </c>
+      <c r="D22" s="21">
+        <v>112</v>
+      </c>
+      <c r="E22" s="22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="21">
+        <v>722</v>
+      </c>
+      <c r="C23" s="21">
+        <v>274</v>
+      </c>
+      <c r="D23" s="21">
+        <v>38</v>
+      </c>
+      <c r="E23" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1984</v>
+      </c>
+      <c r="C24" s="21">
+        <v>616</v>
+      </c>
+      <c r="D24" s="21">
+        <v>148</v>
+      </c>
+      <c r="E24" s="22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1244</v>
+      </c>
+      <c r="C25" s="21">
+        <v>352</v>
+      </c>
+      <c r="D25" s="21">
+        <v>85</v>
+      </c>
+      <c r="E25" s="22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="21">
+        <v>299</v>
+      </c>
+      <c r="C26" s="21">
+        <v>52</v>
+      </c>
+      <c r="D26" s="21">
+        <v>23</v>
+      </c>
+      <c r="E26" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="21">
+        <v>289</v>
+      </c>
+      <c r="C27" s="21">
+        <v>66</v>
+      </c>
+      <c r="D27" s="21">
+        <v>30</v>
+      </c>
+      <c r="E27" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="21">
+        <v>566</v>
+      </c>
+      <c r="C28" s="21">
+        <v>136</v>
+      </c>
+      <c r="D28" s="21">
+        <v>34</v>
+      </c>
+      <c r="E28" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="21">
+        <v>647</v>
+      </c>
+      <c r="C29" s="21">
+        <v>206</v>
+      </c>
+      <c r="D29" s="21">
+        <v>57</v>
+      </c>
+      <c r="E29" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="29">
+        <v>18921</v>
+      </c>
+      <c r="C30" s="29">
+        <v>4706</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1113</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="19">
+        <v>3216</v>
+      </c>
+      <c r="C31" s="21">
+        <v>761</v>
+      </c>
+      <c r="D31" s="21">
+        <v>165</v>
+      </c>
+      <c r="E31" s="22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="19">
+        <v>2529</v>
+      </c>
+      <c r="C32" s="21">
+        <v>604</v>
+      </c>
+      <c r="D32" s="21">
+        <v>150</v>
+      </c>
+      <c r="E32" s="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1157</v>
+      </c>
+      <c r="C33" s="21">
+        <v>227</v>
+      </c>
+      <c r="D33" s="21">
+        <v>52</v>
+      </c>
+      <c r="E33" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="21">
+        <v>898</v>
+      </c>
+      <c r="C34" s="21">
+        <v>257</v>
+      </c>
+      <c r="D34" s="21">
+        <v>61</v>
+      </c>
+      <c r="E34" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="21">
+        <v>570</v>
+      </c>
+      <c r="C35" s="21">
+        <v>138</v>
+      </c>
+      <c r="D35" s="21">
+        <v>23</v>
+      </c>
+      <c r="E35" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="21">
+        <v>727</v>
+      </c>
+      <c r="C36" s="21">
+        <v>191</v>
+      </c>
+      <c r="D36" s="21">
+        <v>48</v>
+      </c>
+      <c r="E36" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="19">
+        <v>2948</v>
+      </c>
+      <c r="C37" s="21">
+        <v>757</v>
+      </c>
+      <c r="D37" s="21">
+        <v>162</v>
+      </c>
+      <c r="E37" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1173</v>
+      </c>
+      <c r="C38" s="21">
+        <v>324</v>
+      </c>
+      <c r="D38" s="21">
+        <v>83</v>
+      </c>
+      <c r="E38" s="22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="21">
+        <v>840</v>
+      </c>
+      <c r="C39" s="21">
+        <v>172</v>
+      </c>
+      <c r="D39" s="21">
+        <v>41</v>
+      </c>
+      <c r="E39" s="22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1284</v>
+      </c>
+      <c r="C40" s="21">
+        <v>381</v>
+      </c>
+      <c r="D40" s="21">
+        <v>94</v>
+      </c>
+      <c r="E40" s="22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="21">
+        <v>441</v>
+      </c>
+      <c r="C41" s="21">
+        <v>110</v>
+      </c>
+      <c r="D41" s="21">
+        <v>30</v>
+      </c>
+      <c r="E41" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1498</v>
+      </c>
+      <c r="C42" s="21">
+        <v>405</v>
+      </c>
+      <c r="D42" s="21">
+        <v>118</v>
+      </c>
+      <c r="E42" s="22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="21">
+        <v>598</v>
+      </c>
+      <c r="C43" s="21">
+        <v>125</v>
+      </c>
+      <c r="D43" s="21">
+        <v>30</v>
+      </c>
+      <c r="E43" s="22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1042</v>
+      </c>
+      <c r="C44" s="21">
+        <v>254</v>
+      </c>
+      <c r="D44" s="21">
+        <v>56</v>
+      </c>
+      <c r="E44" s="22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="29">
+        <v>5050</v>
+      </c>
+      <c r="C45" s="29">
+        <v>1062</v>
+      </c>
+      <c r="D45" s="32">
+        <v>229</v>
+      </c>
+      <c r="E45" s="33">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="21">
+        <v>404</v>
+      </c>
+      <c r="C46" s="21">
+        <v>107</v>
+      </c>
+      <c r="D46" s="21">
+        <v>27</v>
+      </c>
+      <c r="E46" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="19">
+        <v>1195</v>
+      </c>
+      <c r="C47" s="21">
+        <v>263</v>
+      </c>
+      <c r="D47" s="21">
+        <v>58</v>
+      </c>
+      <c r="E47" s="22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1474</v>
+      </c>
+      <c r="C48" s="21">
+        <v>269</v>
+      </c>
+      <c r="D48" s="21">
+        <v>58</v>
+      </c>
+      <c r="E48" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="21">
+        <v>603</v>
+      </c>
+      <c r="C49" s="21">
+        <v>109</v>
+      </c>
+      <c r="D49" s="21">
+        <v>19</v>
+      </c>
+      <c r="E49" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="19">
+        <v>1374</v>
+      </c>
+      <c r="C50" s="21">
+        <v>314</v>
+      </c>
+      <c r="D50" s="21">
+        <v>67</v>
+      </c>
+      <c r="E50" s="22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="29">
+        <v>73597</v>
+      </c>
+      <c r="C51" s="29">
+        <v>19346</v>
+      </c>
+      <c r="D51" s="29">
+        <v>4973</v>
+      </c>
+      <c r="E51" s="30">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1537</v>
+      </c>
+      <c r="C52" s="21">
+        <v>601</v>
+      </c>
+      <c r="D52" s="21">
+        <v>166</v>
+      </c>
+      <c r="E52" s="22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="19">
+        <v>1042</v>
+      </c>
+      <c r="C53" s="21">
+        <v>399</v>
+      </c>
+      <c r="D53" s="21">
+        <v>122</v>
+      </c>
+      <c r="E53" s="22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="19">
+        <v>9223</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2850</v>
+      </c>
+      <c r="D54" s="21">
+        <v>818</v>
+      </c>
+      <c r="E54" s="22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="19">
+        <v>6128</v>
+      </c>
+      <c r="C55" s="19">
+        <v>1584</v>
+      </c>
+      <c r="D55" s="21">
+        <v>469</v>
+      </c>
+      <c r="E55" s="22">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="19">
+        <v>2724</v>
+      </c>
+      <c r="C56" s="21">
+        <v>693</v>
+      </c>
+      <c r="D56" s="21">
+        <v>174</v>
+      </c>
+      <c r="E56" s="22">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="19">
+        <v>52943</v>
+      </c>
+      <c r="C57" s="19">
+        <v>13219</v>
+      </c>
+      <c r="D57" s="19">
+        <v>3224</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="31" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="29">
+        <v>12553</v>
+      </c>
+      <c r="C58" s="29">
+        <v>3747</v>
+      </c>
+      <c r="D58" s="32">
+        <v>949</v>
+      </c>
+      <c r="E58" s="33">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="19">
+        <v>2873</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1272</v>
+      </c>
+      <c r="D59" s="21">
+        <v>337</v>
+      </c>
+      <c r="E59" s="22">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="21">
+        <v>878</v>
+      </c>
+      <c r="C60" s="21">
+        <v>244</v>
+      </c>
+      <c r="D60" s="21">
+        <v>58</v>
+      </c>
+      <c r="E60" s="22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="21">
+        <v>634</v>
+      </c>
+      <c r="C61" s="21">
+        <v>162</v>
+      </c>
+      <c r="D61" s="21">
+        <v>28</v>
+      </c>
+      <c r="E61" s="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="21">
+        <v>353</v>
+      </c>
+      <c r="C62" s="21">
+        <v>75</v>
+      </c>
+      <c r="D62" s="21">
+        <v>18</v>
+      </c>
+      <c r="E62" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="21">
+        <v>405</v>
+      </c>
+      <c r="C63" s="21">
+        <v>97</v>
+      </c>
+      <c r="D63" s="21">
+        <v>30</v>
+      </c>
+      <c r="E63" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="21">
+        <v>690</v>
+      </c>
+      <c r="C64" s="21">
+        <v>180</v>
+      </c>
+      <c r="D64" s="21">
+        <v>63</v>
+      </c>
+      <c r="E64" s="22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="21">
+        <v>985</v>
+      </c>
+      <c r="C65" s="21">
+        <v>255</v>
+      </c>
+      <c r="D65" s="21">
+        <v>75</v>
+      </c>
+      <c r="E65" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="19">
+        <v>1482</v>
+      </c>
+      <c r="C66" s="21">
+        <v>412</v>
+      </c>
+      <c r="D66" s="21">
+        <v>75</v>
+      </c>
+      <c r="E66" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="19">
+        <v>1739</v>
+      </c>
+      <c r="C67" s="21">
+        <v>494</v>
+      </c>
+      <c r="D67" s="21">
+        <v>123</v>
+      </c>
+      <c r="E67" s="22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="21">
+        <v>625</v>
+      </c>
+      <c r="C68" s="21">
+        <v>131</v>
+      </c>
+      <c r="D68" s="21">
+        <v>40</v>
+      </c>
+      <c r="E68" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="21">
+        <v>576</v>
+      </c>
+      <c r="C69" s="21">
+        <v>150</v>
+      </c>
+      <c r="D69" s="21">
+        <v>34</v>
+      </c>
+      <c r="E69" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="21">
+        <v>603</v>
+      </c>
+      <c r="C70" s="21">
+        <v>104</v>
+      </c>
+      <c r="D70" s="21">
+        <v>26</v>
+      </c>
+      <c r="E70" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="21">
+        <v>710</v>
+      </c>
+      <c r="C71" s="21">
+        <v>171</v>
+      </c>
+      <c r="D71" s="21">
+        <v>42</v>
+      </c>
+      <c r="E71" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="32">
+        <v>3</v>
+      </c>
+      <c r="C72" s="32">
+        <v>11</v>
+      </c>
+      <c r="D72" s="32">
+        <v>15</v>
+      </c>
+      <c r="E72" s="33">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1543660-36D6-4E14-8BB8-9FE7A5920FC6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8E3B4E73-FC66-4845-8AA6-D88E37E2DF75}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{54334882-2A43-4E18-B6C1-F920CFC2E29C}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{20C85FEB-12D2-4D5C-8C6B-5ACA214AC4DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>